--- a/Movie_database.xlsx
+++ b/Movie_database.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MySQL Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA0E13-F5E6-4DA1-982D-D8383035DAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="815" activeTab="5" xr2:uid="{6070043D-7E96-4E38-997F-9D06063A0666}"/>
+    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Database Model" sheetId="1" r:id="rId1"/>
@@ -25,12 +19,7 @@
     <sheet name="Rating" sheetId="10" r:id="rId10"/>
     <sheet name="movie_cast" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -97,6 +86,9 @@
     <t>E R Diagram of movie Database:</t>
   </si>
   <si>
+    <t>movie database relationship structure</t>
+  </si>
+  <si>
     <t>Description of tables:</t>
   </si>
   <si>
@@ -206,9 +198,6 @@
   </si>
   <si>
     <t>role – this is the name of a character in the movie, an actor acted for that character</t>
-  </si>
-  <si>
-    <t>movie database relationship structure</t>
   </si>
   <si>
     <t>act_id</t>
@@ -802,13 +791,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,24 +812,361 @@
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -856,9 +1189,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -868,28 +1443,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -905,19 +1524,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Movie database model">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD4CB652-79B3-EA66-D87B-FDB222F6383D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Movie database model"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -929,10 +1542,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7345680" cy="4030980"/>
+          <a:ext cx="7437120" cy="4030980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,7 +1610,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1030,26 +1643,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1082,23 +1678,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1240,39 +1819,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F12817-D11F-4228-A0DD-81C3605D0242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E22C47-5994-4F75-939F-3719116316B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection activeCell="A1" sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="21.15" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
@@ -1286,7 +1864,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:4">
       <c r="A2" s="2">
         <v>901</v>
       </c>
@@ -1300,7 +1878,7 @@
         <v>263575</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:4">
       <c r="A3" s="2">
         <v>902</v>
       </c>
@@ -1314,7 +1892,7 @@
         <v>20207</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:4">
       <c r="A4" s="2">
         <v>903</v>
       </c>
@@ -1322,13 +1900,13 @@
         <v>9003</v>
       </c>
       <c r="C4" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="D4" s="2">
         <v>202778</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:4">
       <c r="A5" s="2">
         <v>906</v>
       </c>
@@ -1336,13 +1914,13 @@
         <v>9005</v>
       </c>
       <c r="C5" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="D5" s="2">
         <v>484746</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:4">
       <c r="A6" s="2">
         <v>924</v>
       </c>
@@ -1354,7 +1932,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:4">
       <c r="A7" s="2">
         <v>908</v>
       </c>
@@ -1368,7 +1946,7 @@
         <v>779489</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:4">
       <c r="A8" s="2">
         <v>909</v>
       </c>
@@ -1380,7 +1958,7 @@
         <v>227235</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:4">
       <c r="A9" s="2">
         <v>910</v>
       </c>
@@ -1394,7 +1972,7 @@
         <v>195961</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:4">
       <c r="A10" s="2">
         <v>911</v>
       </c>
@@ -1408,7 +1986,7 @@
         <v>203875</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15" spans="1:4">
       <c r="A11" s="2">
         <v>912</v>
       </c>
@@ -1420,7 +1998,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:4">
       <c r="A12" s="2">
         <v>914</v>
       </c>
@@ -1434,7 +2012,7 @@
         <v>862618</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:4">
       <c r="A13" s="2">
         <v>915</v>
       </c>
@@ -1448,7 +2026,7 @@
         <v>830095</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:4">
       <c r="A14" s="2">
         <v>916</v>
       </c>
@@ -1462,7 +2040,7 @@
         <v>642132</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15.15" spans="1:4">
       <c r="A15" s="2">
         <v>925</v>
       </c>
@@ -1476,7 +2054,7 @@
         <v>81328</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15.15" spans="1:4">
       <c r="A16" s="2">
         <v>918</v>
       </c>
@@ -1488,7 +2066,7 @@
         <v>580301</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15.15" spans="1:4">
       <c r="A17" s="2">
         <v>920</v>
       </c>
@@ -1502,7 +2080,7 @@
         <v>609451</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15.15" spans="1:4">
       <c r="A18" s="2">
         <v>921</v>
       </c>
@@ -1516,7 +2094,7 @@
         <v>667758</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15.15" spans="1:4">
       <c r="A19" s="2">
         <v>922</v>
       </c>
@@ -1530,7 +2108,7 @@
         <v>511613</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.15" spans="1:4">
       <c r="A20" s="2">
         <v>923</v>
       </c>
@@ -1546,23 +2124,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478D10BE-428A-4B72-9AFF-CA32F51FDFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.15" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1573,7 +2153,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:3">
       <c r="A2" s="2">
         <v>101</v>
       </c>
@@ -1584,7 +2164,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:3">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -1595,7 +2175,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:3">
       <c r="A4" s="2">
         <v>103</v>
       </c>
@@ -1606,7 +2186,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:3">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -1617,7 +2197,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:3">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -1628,7 +2208,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:3">
       <c r="A7" s="2">
         <v>106</v>
       </c>
@@ -1639,7 +2219,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:3">
       <c r="A8" s="2">
         <v>107</v>
       </c>
@@ -1650,7 +2230,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:3">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -1661,7 +2241,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:3">
       <c r="A10" s="2">
         <v>110</v>
       </c>
@@ -1672,7 +2252,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15" spans="1:3">
       <c r="A11" s="2">
         <v>111</v>
       </c>
@@ -1683,7 +2263,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:3">
       <c r="A12" s="2">
         <v>112</v>
       </c>
@@ -1694,7 +2274,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:3">
       <c r="A13" s="2">
         <v>113</v>
       </c>
@@ -1705,7 +2285,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:3">
       <c r="A14" s="2">
         <v>114</v>
       </c>
@@ -1716,7 +2296,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15.15" spans="1:3">
       <c r="A15" s="2">
         <v>115</v>
       </c>
@@ -1727,7 +2307,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15.15" spans="1:3">
       <c r="A16" s="2">
         <v>116</v>
       </c>
@@ -1738,7 +2318,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15.15" spans="1:3">
       <c r="A17" s="2">
         <v>117</v>
       </c>
@@ -1749,7 +2329,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15.15" spans="1:3">
       <c r="A18" s="2">
         <v>118</v>
       </c>
@@ -1760,7 +2340,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15.15" spans="1:3">
       <c r="A19" s="2">
         <v>120</v>
       </c>
@@ -1771,7 +2351,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.15" spans="1:3">
       <c r="A20" s="2">
         <v>121</v>
       </c>
@@ -1782,7 +2362,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="15.15" spans="1:3">
       <c r="A21" s="2">
         <v>122</v>
       </c>
@@ -1793,7 +2373,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="15.15" spans="1:3">
       <c r="A22" s="2">
         <v>114</v>
       </c>
@@ -1804,7 +2384,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="15.15" spans="1:3">
       <c r="A23" s="2">
         <v>109</v>
       </c>
@@ -1815,7 +2395,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" ht="15.15" spans="1:3">
       <c r="A24" s="2">
         <v>119</v>
       </c>
@@ -1828,333 +2408,339 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8485C5-2E52-4032-BCB4-9EEF1FB5F984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB321527-C5EE-4777-8A6D-EEFF69A99B90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="A1" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.15" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2168,7 +2754,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:4">
       <c r="A2" s="2">
         <v>101</v>
       </c>
@@ -2182,7 +2768,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:4">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -2196,7 +2782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:4">
       <c r="A4" s="2">
         <v>103</v>
       </c>
@@ -2210,7 +2796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:4">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -2224,7 +2810,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:4">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -2238,7 +2824,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:4">
       <c r="A7" s="2">
         <v>106</v>
       </c>
@@ -2252,7 +2838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:4">
       <c r="A8" s="2">
         <v>107</v>
       </c>
@@ -2266,7 +2852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:4">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -2280,7 +2866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:4">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -2294,7 +2880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15" spans="1:4">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -2308,7 +2894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:4">
       <c r="A12" s="2">
         <v>111</v>
       </c>
@@ -2322,7 +2908,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:4">
       <c r="A13" s="2">
         <v>112</v>
       </c>
@@ -2336,7 +2922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:4">
       <c r="A14" s="2">
         <v>113</v>
       </c>
@@ -2350,7 +2936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15.15" spans="1:4">
       <c r="A15" s="2">
         <v>114</v>
       </c>
@@ -2364,7 +2950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15.15" spans="1:4">
       <c r="A16" s="2">
         <v>115</v>
       </c>
@@ -2378,7 +2964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15.15" spans="1:4">
       <c r="A17" s="2">
         <v>116</v>
       </c>
@@ -2392,7 +2978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15.15" spans="1:4">
       <c r="A18" s="2">
         <v>117</v>
       </c>
@@ -2406,7 +2992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15.15" spans="1:4">
       <c r="A19" s="2">
         <v>118</v>
       </c>
@@ -2420,7 +3006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.15" spans="1:4">
       <c r="A20" s="2">
         <v>119</v>
       </c>
@@ -2434,7 +3020,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="15.15" spans="1:4">
       <c r="A21" s="2">
         <v>120</v>
       </c>
@@ -2448,7 +3034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="15.15" spans="1:4">
       <c r="A22" s="2">
         <v>121</v>
       </c>
@@ -2462,7 +3048,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="15.15" spans="1:4">
       <c r="A23" s="2">
         <v>122</v>
       </c>
@@ -2476,7 +3062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" ht="15.15" spans="1:4">
       <c r="A24" s="2">
         <v>123</v>
       </c>
@@ -2490,7 +3076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" ht="15.15" spans="1:4">
       <c r="A25" s="2">
         <v>124</v>
       </c>
@@ -2506,20 +3092,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E07D661-989E-4674-93B0-A67F55A0A475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="A1" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.15" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -2527,7 +3115,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:2">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
@@ -2535,7 +3123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:2">
       <c r="A3" s="2">
         <v>1002</v>
       </c>
@@ -2543,7 +3131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:2">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
@@ -2551,7 +3139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:2">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
@@ -2559,7 +3147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:2">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
@@ -2567,7 +3155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:2">
       <c r="A7" s="2">
         <v>1006</v>
       </c>
@@ -2575,7 +3163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:2">
       <c r="A8" s="2">
         <v>1007</v>
       </c>
@@ -2583,7 +3171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:2">
       <c r="A9" s="2">
         <v>1008</v>
       </c>
@@ -2591,7 +3179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:2">
       <c r="A10" s="2">
         <v>1009</v>
       </c>
@@ -2599,7 +3187,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15" spans="1:2">
       <c r="A11" s="2">
         <v>1010</v>
       </c>
@@ -2607,7 +3195,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:2">
       <c r="A12" s="2">
         <v>1011</v>
       </c>
@@ -2615,7 +3203,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:2">
       <c r="A13" s="2">
         <v>1012</v>
       </c>
@@ -2623,7 +3211,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:2">
       <c r="A14" s="2">
         <v>1013</v>
       </c>
@@ -2633,20 +3221,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C69D1D-B2D5-4DEA-A95A-ECF1E930CC3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C24"/>
+      <selection activeCell="A1" sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.15" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -2657,7 +3247,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:3">
       <c r="A2" s="2">
         <v>201</v>
       </c>
@@ -2668,7 +3258,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:3">
       <c r="A3" s="2">
         <v>202</v>
       </c>
@@ -2679,7 +3269,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:3">
       <c r="A4" s="2">
         <v>203</v>
       </c>
@@ -2690,7 +3280,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:3">
       <c r="A5" s="2">
         <v>204</v>
       </c>
@@ -2701,7 +3291,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:3">
       <c r="A6" s="2">
         <v>205</v>
       </c>
@@ -2712,7 +3302,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:3">
       <c r="A7" s="2">
         <v>206</v>
       </c>
@@ -2723,7 +3313,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:3">
       <c r="A8" s="2">
         <v>207</v>
       </c>
@@ -2734,7 +3324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:3">
       <c r="A9" s="2">
         <v>208</v>
       </c>
@@ -2745,7 +3335,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:3">
       <c r="A10" s="2">
         <v>209</v>
       </c>
@@ -2756,7 +3346,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="21.15" spans="1:3">
       <c r="A11" s="2">
         <v>210</v>
       </c>
@@ -2767,7 +3357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:3">
       <c r="A12" s="2">
         <v>211</v>
       </c>
@@ -2778,7 +3368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:3">
       <c r="A13" s="2">
         <v>212</v>
       </c>
@@ -2789,7 +3379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:3">
       <c r="A14" s="2">
         <v>213</v>
       </c>
@@ -2800,7 +3390,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15.15" spans="1:3">
       <c r="A15" s="2">
         <v>214</v>
       </c>
@@ -2811,7 +3401,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15.15" spans="1:3">
       <c r="A16" s="2">
         <v>215</v>
       </c>
@@ -2822,7 +3412,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15.15" spans="1:3">
       <c r="A17" s="2">
         <v>216</v>
       </c>
@@ -2833,7 +3423,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15.15" spans="1:3">
       <c r="A18" s="2">
         <v>217</v>
       </c>
@@ -2844,7 +3434,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15.15" spans="1:3">
       <c r="A19" s="2">
         <v>218</v>
       </c>
@@ -2855,7 +3445,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.15" spans="1:3">
       <c r="A20" s="2">
         <v>219</v>
       </c>
@@ -2866,7 +3456,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="15.15" spans="1:3">
       <c r="A21" s="2">
         <v>220</v>
       </c>
@@ -2877,7 +3467,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="15.15" spans="1:3">
       <c r="A22" s="2">
         <v>221</v>
       </c>
@@ -2888,7 +3478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="15.15" spans="1:3">
       <c r="A23" s="2">
         <v>222</v>
       </c>
@@ -2899,7 +3489,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" ht="15.15" spans="1:3">
       <c r="A24" s="2">
         <v>223</v>
       </c>
@@ -2912,24 +3502,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC897FC9-9AF9-469D-8986-B6221B5C4C29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.15" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
@@ -2952,7 +3544,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:7">
       <c r="A2" s="2">
         <v>901</v>
       </c>
@@ -2975,7 +3567,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:7">
       <c r="A3" s="2">
         <v>902</v>
       </c>
@@ -2998,7 +3590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:7">
       <c r="A4" s="2">
         <v>903</v>
       </c>
@@ -3021,7 +3613,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:7">
       <c r="A5" s="2">
         <v>904</v>
       </c>
@@ -3044,7 +3636,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:7">
       <c r="A6" s="2">
         <v>905</v>
       </c>
@@ -3067,7 +3659,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:7">
       <c r="A7" s="2">
         <v>906</v>
       </c>
@@ -3090,7 +3682,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:7">
       <c r="A8" s="2">
         <v>907</v>
       </c>
@@ -3111,7 +3703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:7">
       <c r="A9" s="2">
         <v>908</v>
       </c>
@@ -3134,7 +3726,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:7">
       <c r="A10" s="2">
         <v>909</v>
       </c>
@@ -3157,7 +3749,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15" spans="1:7">
       <c r="A11" s="2">
         <v>910</v>
       </c>
@@ -3180,7 +3772,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:7">
       <c r="A12" s="2">
         <v>911</v>
       </c>
@@ -3203,7 +3795,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:7">
       <c r="A13" s="2">
         <v>912</v>
       </c>
@@ -3226,7 +3818,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:7">
       <c r="A14" s="2">
         <v>913</v>
       </c>
@@ -3249,7 +3841,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15.15" spans="1:7">
       <c r="A15" s="2">
         <v>914</v>
       </c>
@@ -3270,7 +3862,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15.15" spans="1:7">
       <c r="A16" s="2">
         <v>915</v>
       </c>
@@ -3293,7 +3885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15.15" spans="1:7">
       <c r="A17" s="2">
         <v>916</v>
       </c>
@@ -3316,7 +3908,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15.15" spans="1:7">
       <c r="A18" s="2">
         <v>917</v>
       </c>
@@ -3339,7 +3931,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15.15" spans="1:7">
       <c r="A19" s="2">
         <v>918</v>
       </c>
@@ -3362,7 +3954,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.15" spans="1:7">
       <c r="A20" s="2">
         <v>919</v>
       </c>
@@ -3385,7 +3977,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="15.15" spans="1:7">
       <c r="A21" s="2">
         <v>920</v>
       </c>
@@ -3406,7 +3998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="15.15" spans="1:7">
       <c r="A22" s="2">
         <v>921</v>
       </c>
@@ -3429,7 +4021,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="15.15" spans="1:7">
       <c r="A23" s="2">
         <v>922</v>
       </c>
@@ -3452,7 +4044,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" ht="15.15" spans="1:7">
       <c r="A24" s="2">
         <v>923</v>
       </c>
@@ -3475,7 +4067,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" ht="15.15" spans="1:7">
       <c r="A25" s="2">
         <v>924</v>
       </c>
@@ -3498,7 +4090,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" ht="15.15" spans="1:7">
       <c r="A26" s="2">
         <v>926</v>
       </c>
@@ -3521,7 +4113,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" ht="15.15" spans="1:7">
       <c r="A27" s="2">
         <v>927</v>
       </c>
@@ -3544,7 +4136,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" ht="15.15" spans="1:7">
       <c r="A28" s="2">
         <v>928</v>
       </c>
@@ -3567,7 +4159,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" ht="15.15" spans="1:7">
       <c r="A29" s="2">
         <v>925</v>
       </c>
@@ -3592,20 +4184,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566ED50E-D41C-4C89-8DFD-FD8071573562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="A1" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.15" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
@@ -3613,7 +4207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:2">
       <c r="A2" s="2">
         <v>922</v>
       </c>
@@ -3621,7 +4215,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:2">
       <c r="A3" s="2">
         <v>917</v>
       </c>
@@ -3629,7 +4223,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:2">
       <c r="A4" s="2">
         <v>903</v>
       </c>
@@ -3637,7 +4231,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:2">
       <c r="A5" s="2">
         <v>912</v>
       </c>
@@ -3645,7 +4239,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:2">
       <c r="A6" s="2">
         <v>911</v>
       </c>
@@ -3653,7 +4247,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:2">
       <c r="A7" s="2">
         <v>908</v>
       </c>
@@ -3661,7 +4255,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:2">
       <c r="A8" s="2">
         <v>913</v>
       </c>
@@ -3669,7 +4263,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:2">
       <c r="A9" s="2">
         <v>926</v>
       </c>
@@ -3677,7 +4271,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:2">
       <c r="A10" s="2">
         <v>928</v>
       </c>
@@ -3685,7 +4279,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15" spans="1:2">
       <c r="A11" s="2">
         <v>918</v>
       </c>
@@ -3693,7 +4287,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:2">
       <c r="A12" s="2">
         <v>921</v>
       </c>
@@ -3701,7 +4295,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:2">
       <c r="A13" s="2">
         <v>902</v>
       </c>
@@ -3709,7 +4303,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:2">
       <c r="A14" s="2">
         <v>923</v>
       </c>
@@ -3717,7 +4311,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15.15" spans="1:2">
       <c r="A15" s="2">
         <v>907</v>
       </c>
@@ -3725,7 +4319,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15.15" spans="1:2">
       <c r="A16" s="2">
         <v>927</v>
       </c>
@@ -3733,7 +4327,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15.15" spans="1:2">
       <c r="A17" s="2">
         <v>901</v>
       </c>
@@ -3741,7 +4335,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15.15" spans="1:2">
       <c r="A18" s="2">
         <v>914</v>
       </c>
@@ -3749,7 +4343,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15.15" spans="1:2">
       <c r="A19" s="2">
         <v>906</v>
       </c>
@@ -3757,7 +4351,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.15" spans="1:2">
       <c r="A20" s="2">
         <v>904</v>
       </c>
@@ -3767,20 +4361,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5792177B-1E9D-4F22-B952-0A7974438DBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection activeCell="A1" sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.15" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -3788,7 +4384,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:2">
       <c r="A2" s="2">
         <v>201</v>
       </c>
@@ -3796,7 +4392,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:2">
       <c r="A3" s="2">
         <v>202</v>
       </c>
@@ -3804,7 +4400,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:2">
       <c r="A4" s="2">
         <v>203</v>
       </c>
@@ -3812,7 +4408,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:2">
       <c r="A5" s="2">
         <v>204</v>
       </c>
@@ -3820,7 +4416,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:2">
       <c r="A6" s="2">
         <v>205</v>
       </c>
@@ -3828,7 +4424,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:2">
       <c r="A7" s="2">
         <v>206</v>
       </c>
@@ -3836,7 +4432,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:2">
       <c r="A8" s="2">
         <v>207</v>
       </c>
@@ -3844,7 +4440,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:2">
       <c r="A9" s="2">
         <v>208</v>
       </c>
@@ -3852,7 +4448,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:2">
       <c r="A10" s="2">
         <v>209</v>
       </c>
@@ -3860,7 +4456,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15" spans="1:2">
       <c r="A11" s="2">
         <v>210</v>
       </c>
@@ -3868,7 +4464,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:2">
       <c r="A12" s="2">
         <v>211</v>
       </c>
@@ -3876,7 +4472,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:2">
       <c r="A13" s="2">
         <v>212</v>
       </c>
@@ -3884,7 +4480,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:2">
       <c r="A14" s="2">
         <v>213</v>
       </c>
@@ -3892,7 +4488,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15.15" spans="1:2">
       <c r="A15" s="2">
         <v>214</v>
       </c>
@@ -3900,7 +4496,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15.15" spans="1:2">
       <c r="A16" s="2">
         <v>215</v>
       </c>
@@ -3908,7 +4504,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15.15" spans="1:2">
       <c r="A17" s="2">
         <v>216</v>
       </c>
@@ -3916,7 +4512,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15.15" spans="1:2">
       <c r="A18" s="2">
         <v>217</v>
       </c>
@@ -3924,7 +4520,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15.15" spans="1:2">
       <c r="A19" s="2">
         <v>218</v>
       </c>
@@ -3932,7 +4528,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.15" spans="1:2">
       <c r="A20" s="2">
         <v>219</v>
       </c>
@@ -3940,7 +4536,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="15.15" spans="1:2">
       <c r="A21" s="2">
         <v>220</v>
       </c>
@@ -3948,7 +4544,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" ht="15.15" spans="1:2">
       <c r="A22" s="2">
         <v>218</v>
       </c>
@@ -3956,7 +4552,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" ht="15.15" spans="1:2">
       <c r="A23" s="2">
         <v>215</v>
       </c>
@@ -3964,7 +4560,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" ht="15.15" spans="1:2">
       <c r="A24" s="2">
         <v>221</v>
       </c>
@@ -3974,23 +4570,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6968E39-62B8-42B2-8093-1B3674C6EB3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="15.15" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
@@ -3998,7 +4596,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" ht="15.15" spans="1:2">
       <c r="A2" s="2">
         <v>9001</v>
       </c>
@@ -4006,7 +4604,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" ht="15.15" spans="1:2">
       <c r="A3" s="2">
         <v>9002</v>
       </c>
@@ -4014,7 +4612,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" ht="15.15" spans="1:2">
       <c r="A4" s="2">
         <v>9003</v>
       </c>
@@ -4022,7 +4620,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" ht="15.15" spans="1:2">
       <c r="A5" s="2">
         <v>9004</v>
       </c>
@@ -4030,13 +4628,13 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" ht="15.15" spans="1:2">
       <c r="A6" s="2">
         <v>9005</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" ht="15.15" spans="1:2">
       <c r="A7" s="2">
         <v>9006</v>
       </c>
@@ -4044,7 +4642,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" ht="15.15" spans="1:2">
       <c r="A8" s="2">
         <v>9007</v>
       </c>
@@ -4052,7 +4650,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" ht="15.15" spans="1:2">
       <c r="A9" s="2">
         <v>9008</v>
       </c>
@@ -4060,7 +4658,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" ht="15.15" spans="1:2">
       <c r="A10" s="2">
         <v>9009</v>
       </c>
@@ -4068,7 +4666,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" ht="15.15" spans="1:2">
       <c r="A11" s="2">
         <v>9010</v>
       </c>
@@ -4076,13 +4674,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" ht="15.15" spans="1:2">
       <c r="A12" s="2">
         <v>9011</v>
       </c>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" ht="15.15" spans="1:2">
       <c r="A13" s="2">
         <v>9012</v>
       </c>
@@ -4090,7 +4688,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" ht="15.15" spans="1:2">
       <c r="A14" s="2">
         <v>9013</v>
       </c>
@@ -4098,7 +4696,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" ht="15.15" spans="1:2">
       <c r="A15" s="2">
         <v>9014</v>
       </c>
@@ -4106,7 +4704,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" ht="15.15" spans="1:2">
       <c r="A16" s="2">
         <v>9015</v>
       </c>
@@ -4114,7 +4712,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" ht="15.15" spans="1:2">
       <c r="A17" s="2">
         <v>9016</v>
       </c>
@@ -4122,7 +4720,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" ht="15.15" spans="1:2">
       <c r="A18" s="2">
         <v>9017</v>
       </c>
@@ -4130,7 +4728,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" ht="15.15" spans="1:2">
       <c r="A19" s="2">
         <v>9018</v>
       </c>
@@ -4138,7 +4736,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" ht="15.15" spans="1:2">
       <c r="A20" s="2">
         <v>9019</v>
       </c>
@@ -4146,7 +4744,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" ht="15.15" spans="1:2">
       <c r="A21" s="2">
         <v>9020</v>
       </c>
@@ -4156,5 +4754,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>